--- a/outputs/excel/abe_extention.xlsx
+++ b/outputs/excel/abe_extention.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C12" t="n">
         <v>7.02</v>
